--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.6124870237155</v>
+        <v>30.07831966666667</v>
       </c>
       <c r="H2">
-        <v>22.6124870237155</v>
+        <v>90.234959</v>
       </c>
       <c r="I2">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="J2">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N2">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O2">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P2">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q2">
-        <v>999.8436515433169</v>
+        <v>1431.095268548612</v>
       </c>
       <c r="R2">
-        <v>999.8436515433169</v>
+        <v>12879.85741693751</v>
       </c>
       <c r="S2">
-        <v>0.08099867842336943</v>
+        <v>0.1021856986613119</v>
       </c>
       <c r="T2">
-        <v>0.08099867842336943</v>
+        <v>0.1021856986613119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.6124870237155</v>
+        <v>30.07831966666667</v>
       </c>
       <c r="H3">
-        <v>22.6124870237155</v>
+        <v>90.234959</v>
       </c>
       <c r="I3">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="J3">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N3">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q3">
-        <v>221.6157002783179</v>
+        <v>295.6615706809988</v>
       </c>
       <c r="R3">
-        <v>221.6157002783179</v>
+        <v>2660.954136128989</v>
       </c>
       <c r="S3">
-        <v>0.0179533858245792</v>
+        <v>0.02111137171040995</v>
       </c>
       <c r="T3">
-        <v>0.0179533858245792</v>
+        <v>0.02111137171040996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.6124870237155</v>
+        <v>30.07831966666667</v>
       </c>
       <c r="H4">
-        <v>22.6124870237155</v>
+        <v>90.234959</v>
       </c>
       <c r="I4">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="J4">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N4">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q4">
-        <v>236.5821260107497</v>
+        <v>328.8662409199254</v>
       </c>
       <c r="R4">
-        <v>236.5821260107497</v>
+        <v>2959.796168279328</v>
       </c>
       <c r="S4">
-        <v>0.01916583609435617</v>
+        <v>0.02348231269648724</v>
       </c>
       <c r="T4">
-        <v>0.01916583609435617</v>
+        <v>0.02348231269648724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.6124870237155</v>
+        <v>30.07831966666667</v>
       </c>
       <c r="H5">
-        <v>22.6124870237155</v>
+        <v>90.234959</v>
       </c>
       <c r="I5">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="J5">
-        <v>0.1862326662554579</v>
+        <v>0.2269842729019557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N5">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q5">
-        <v>840.8052773238347</v>
+        <v>1123.257362421834</v>
       </c>
       <c r="R5">
-        <v>840.8052773238347</v>
+        <v>10109.3162617965</v>
       </c>
       <c r="S5">
-        <v>0.06811476591315309</v>
+        <v>0.08020488983374663</v>
       </c>
       <c r="T5">
-        <v>0.06811476591315309</v>
+        <v>0.08020488983374664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.8654407152529</v>
+        <v>31.96959266666667</v>
       </c>
       <c r="H6">
-        <v>31.8654407152529</v>
+        <v>95.90877800000001</v>
       </c>
       <c r="I6">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="J6">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N6">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O6">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P6">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q6">
-        <v>1408.976313368846</v>
+        <v>1521.080077268936</v>
       </c>
       <c r="R6">
-        <v>1408.976313368846</v>
+        <v>13689.72069542042</v>
       </c>
       <c r="S6">
-        <v>0.1141430654048249</v>
+        <v>0.1086109596135868</v>
       </c>
       <c r="T6">
-        <v>0.1141430654048249</v>
+        <v>0.1086109596135868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.8654407152529</v>
+        <v>31.96959266666667</v>
       </c>
       <c r="H7">
-        <v>31.8654407152529</v>
+        <v>95.90877800000001</v>
       </c>
       <c r="I7">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="J7">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N7">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q7">
-        <v>312.3001000014567</v>
+        <v>314.2522616492265</v>
       </c>
       <c r="R7">
-        <v>312.3001000014567</v>
+        <v>2828.270354843038</v>
       </c>
       <c r="S7">
-        <v>0.02529985096425668</v>
+        <v>0.02243881844783892</v>
       </c>
       <c r="T7">
-        <v>0.02529985096425668</v>
+        <v>0.02243881844783892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.8654407152529</v>
+        <v>31.96959266666667</v>
       </c>
       <c r="H8">
-        <v>31.8654407152529</v>
+        <v>95.90877800000001</v>
       </c>
       <c r="I8">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="J8">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N8">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q8">
-        <v>333.3907368427678</v>
+        <v>349.5447844341974</v>
       </c>
       <c r="R8">
-        <v>333.3907368427678</v>
+        <v>3145.903059907776</v>
       </c>
       <c r="S8">
-        <v>0.02700843180948838</v>
+        <v>0.0249588401246348</v>
       </c>
       <c r="T8">
-        <v>0.02700843180948838</v>
+        <v>0.0249588401246348</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.8654407152529</v>
+        <v>31.96959266666667</v>
       </c>
       <c r="H9">
-        <v>31.8654407152529</v>
+        <v>95.90877800000001</v>
       </c>
       <c r="I9">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="J9">
-        <v>0.2624384473756873</v>
+        <v>0.2412566535243296</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N9">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O9">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P9">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q9">
-        <v>1184.859970932648</v>
+        <v>1193.885853146797</v>
       </c>
       <c r="R9">
-        <v>1184.859970932648</v>
+        <v>10744.97267832117</v>
       </c>
       <c r="S9">
-        <v>0.09598709919711737</v>
+        <v>0.08524803533826909</v>
       </c>
       <c r="T9">
-        <v>0.09598709919711737</v>
+        <v>0.08524803533826911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.3644237653586</v>
+        <v>55.83720666666667</v>
       </c>
       <c r="H10">
-        <v>52.3644237653586</v>
+        <v>167.51162</v>
       </c>
       <c r="I10">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="J10">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N10">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O10">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P10">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q10">
-        <v>2315.36834553438</v>
+        <v>2656.676408629089</v>
       </c>
       <c r="R10">
-        <v>2315.36834553438</v>
+        <v>23910.0876776618</v>
       </c>
       <c r="S10">
-        <v>0.187571102503983</v>
+        <v>0.1896968992204915</v>
       </c>
       <c r="T10">
-        <v>0.187571102503983</v>
+        <v>0.1896968992204915</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>52.3644237653586</v>
+        <v>55.83720666666667</v>
       </c>
       <c r="H11">
-        <v>52.3644237653586</v>
+        <v>167.51162</v>
       </c>
       <c r="I11">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="J11">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N11">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P11">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q11">
-        <v>513.2022156722385</v>
+        <v>548.8643118518911</v>
       </c>
       <c r="R11">
-        <v>513.2022156722385</v>
+        <v>4939.77880666702</v>
       </c>
       <c r="S11">
-        <v>0.04157520145197964</v>
+        <v>0.03919101991981779</v>
       </c>
       <c r="T11">
-        <v>0.04157520145197964</v>
+        <v>0.0391910199198178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.3644237653586</v>
+        <v>55.83720666666667</v>
       </c>
       <c r="H12">
-        <v>52.3644237653586</v>
+        <v>167.51162</v>
       </c>
       <c r="I12">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="J12">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N12">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O12">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P12">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q12">
-        <v>547.8604228161008</v>
+        <v>610.5052563918933</v>
       </c>
       <c r="R12">
-        <v>547.8604228161008</v>
+        <v>5494.54730752704</v>
       </c>
       <c r="S12">
-        <v>0.04438290940796159</v>
+        <v>0.04359242010776716</v>
       </c>
       <c r="T12">
-        <v>0.04438290940796159</v>
+        <v>0.04359242010776716</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>52.3644237653586</v>
+        <v>55.83720666666667</v>
       </c>
       <c r="H13">
-        <v>52.3644237653586</v>
+        <v>167.51162</v>
       </c>
       <c r="I13">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="J13">
-        <v>0.4312646479144793</v>
+        <v>0.4213722008598541</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N13">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O13">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P13">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q13">
-        <v>1947.07834656839</v>
+        <v>2085.208022937191</v>
       </c>
       <c r="R13">
-        <v>1947.07834656839</v>
+        <v>18766.87220643472</v>
       </c>
       <c r="S13">
-        <v>0.1577354345505551</v>
+        <v>0.1488918616117776</v>
       </c>
       <c r="T13">
-        <v>0.1577354345505551</v>
+        <v>0.1488918616117776</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.578275061249</v>
+        <v>14.62767266666667</v>
       </c>
       <c r="H14">
-        <v>14.578275061249</v>
+        <v>43.883018</v>
       </c>
       <c r="I14">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="J14">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N14">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O14">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P14">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q14">
-        <v>644.5994089528974</v>
+        <v>695.9695014593354</v>
       </c>
       <c r="R14">
-        <v>644.5994089528974</v>
+        <v>6263.72551313402</v>
       </c>
       <c r="S14">
-        <v>0.05221986473292893</v>
+        <v>0.04969489545284688</v>
       </c>
       <c r="T14">
-        <v>0.05221986473292893</v>
+        <v>0.04969489545284689</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.578275061249</v>
+        <v>14.62767266666667</v>
       </c>
       <c r="H15">
-        <v>14.578275061249</v>
+        <v>43.883018</v>
       </c>
       <c r="I15">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="J15">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N15">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O15">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P15">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q15">
-        <v>142.8756878073724</v>
+        <v>143.7859801997865</v>
       </c>
       <c r="R15">
-        <v>142.8756878073724</v>
+        <v>1294.073821798078</v>
       </c>
       <c r="S15">
-        <v>0.01157455155449942</v>
+        <v>0.01026687123305071</v>
       </c>
       <c r="T15">
-        <v>0.01157455155449942</v>
+        <v>0.01026687123305072</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.578275061249</v>
+        <v>14.62767266666667</v>
       </c>
       <c r="H16">
-        <v>14.578275061249</v>
+        <v>43.883018</v>
       </c>
       <c r="I16">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="J16">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N16">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O16">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P16">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q16">
-        <v>152.5245455726557</v>
+        <v>159.9340580393173</v>
       </c>
       <c r="R16">
-        <v>152.5245455726557</v>
+        <v>1439.406522353856</v>
       </c>
       <c r="S16">
-        <v>0.0123562184942021</v>
+        <v>0.01141990601161106</v>
       </c>
       <c r="T16">
-        <v>0.0123562184942021</v>
+        <v>0.01141990601161107</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.578275061249</v>
+        <v>14.62767266666667</v>
       </c>
       <c r="H17">
-        <v>14.578275061249</v>
+        <v>43.883018</v>
       </c>
       <c r="I17">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="J17">
-        <v>0.1200642384543755</v>
+        <v>0.1103868727138606</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N17">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O17">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P17">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q17">
-        <v>542.0673361988538</v>
+        <v>546.2619321829565</v>
       </c>
       <c r="R17">
-        <v>542.0673361988538</v>
+        <v>4916.357389646608</v>
       </c>
       <c r="S17">
-        <v>0.04391360367274507</v>
+        <v>0.03900520001635198</v>
       </c>
       <c r="T17">
-        <v>0.04391360367274507</v>
+        <v>0.03900520001635199</v>
       </c>
     </row>
   </sheetData>
